--- a/currentbuild/StructureDefinition-municipal-organization.xlsx
+++ b/currentbuild/StructureDefinition-municipal-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="446">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>MunicipalOrganization</t>
+    <t>NoMunicipalOrganization</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T11:05:03+00:00</t>
+    <t>2025-06-11T10:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -498,6 +498,22 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
+    <t>Organization.identifier:ENH</t>
+  </si>
+  <si>
+    <t>ENH</t>
+  </si>
+  <si>
+    <t>organisasjonsnummer
+organization number</t>
+  </si>
+  <si>
+    <t>Organisasjonsnummer from Enhetsregisteret</t>
+  </si>
+  <si>
+    <t>Organization.identifier:ENH.id</t>
+  </si>
+  <si>
     <t>Organization.identifier.id</t>
   </si>
   <si>
@@ -517,6 +533,9 @@
     <t>n/a</t>
   </si>
   <si>
+    <t>Organization.identifier:ENH.extension</t>
+  </si>
+  <si>
     <t>Organization.identifier.extension</t>
   </si>
   <si>
@@ -533,6 +552,9 @@
     <t>Element.extension</t>
   </si>
   <si>
+    <t>Organization.identifier:ENH.use</t>
+  </si>
+  <si>
     <t>Organization.identifier.use</t>
   </si>
   <si>
@@ -561,6 +583,9 @@
   </si>
   <si>
     <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Organization.identifier:ENH.type</t>
   </si>
   <si>
     <t>Organization.identifier.type</t>
@@ -597,6 +622,9 @@
     <t>CX.5</t>
   </si>
   <si>
+    <t>Organization.identifier:ENH.system</t>
+  </si>
+  <si>
     <t>Organization.identifier.system</t>
   </si>
   <si>
@@ -630,6 +658,9 @@
     <t>./IdentifierType</t>
   </si>
   <si>
+    <t>Organization.identifier:ENH.value</t>
+  </si>
+  <si>
     <t>Organization.identifier.value</t>
   </si>
   <si>
@@ -655,6 +686,9 @@
   </si>
   <si>
     <t>./Value</t>
+  </si>
+  <si>
+    <t>Organization.identifier:ENH.period</t>
   </si>
   <si>
     <t>Organization.identifier.period</t>
@@ -682,6 +716,9 @@
     <t>./StartDate and ./EndDate</t>
   </si>
   <si>
+    <t>Organization.identifier:ENH.assigner</t>
+  </si>
+  <si>
     <t>Organization.identifier.assigner</t>
   </si>
   <si>
@@ -708,43 +745,6 @@
   </si>
   <si>
     <t>./IdentifierIssuingAuthority</t>
-  </si>
-  <si>
-    <t>Organization.identifier:ENH</t>
-  </si>
-  <si>
-    <t>ENH</t>
-  </si>
-  <si>
-    <t>organisasjonsnummer
-organization number</t>
-  </si>
-  <si>
-    <t>Organisasjonsnummer from Enhetsregisteret</t>
-  </si>
-  <si>
-    <t>Organization.identifier:ENH.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier:ENH.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier:ENH.use</t>
-  </si>
-  <si>
-    <t>Organization.identifier:ENH.type</t>
-  </si>
-  <si>
-    <t>Organization.identifier:ENH.system</t>
-  </si>
-  <si>
-    <t>Organization.identifier:ENH.value</t>
-  </si>
-  <si>
-    <t>Organization.identifier:ENH.period</t>
-  </si>
-  <si>
-    <t>Organization.identifier:ENH.assigner</t>
   </si>
   <si>
     <t>Organization.identifier:RSH</t>
@@ -1243,7 +1243,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization)
+    <t xml:space="preserve">Reference(https://github.com/oslokommune/Pasientjournal-API/StructureDefinition/municipal-organization)
 </t>
   </si>
   <si>
@@ -1702,7 +1702,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN77"/>
+  <dimension ref="A1:AN69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1721,7 +1721,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.83203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.08203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2914,7 +2914,7 @@
         <v>86</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -3015,15 +3015,17 @@
         <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>86</v>
@@ -3035,19 +3037,21 @@
         <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
       </c>
@@ -3095,50 +3099,50 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>20</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -3150,17 +3154,15 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -3197,37 +3199,37 @@
         <v>20</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="AC13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AD13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AF13" t="s" s="2">
+      <c r="AG13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>20</v>
@@ -3241,43 +3243,41 @@
         <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>20</v>
       </c>
@@ -3301,49 +3301,49 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>20</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3374,25 +3374,25 @@
         <v>20</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3417,13 +3417,13 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -3441,7 +3441,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3456,10 +3456,10 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>20</v>
@@ -3470,10 +3470,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3496,68 +3496,68 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="S16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3572,13 +3572,13 @@
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>20</v>
@@ -3586,10 +3586,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3597,7 +3597,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
@@ -3612,24 +3612,26 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>20</v>
@@ -3703,7 +3705,7 @@
         <v>207</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3711,7 +3713,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>86</v>
@@ -3726,7 +3728,7 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>209</v>
@@ -3734,7 +3736,9 @@
       <c r="M18" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="N18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -3747,7 +3751,7 @@
         <v>20</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>20</v>
@@ -3783,7 +3787,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3798,13 +3802,13 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>20</v>
@@ -3812,10 +3816,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3838,17 +3842,15 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -3897,7 +3899,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3912,13 +3914,13 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>20</v>
@@ -3926,16 +3928,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3954,18 +3954,18 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>144</v>
+        <v>228</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>20</v>
       </c>
@@ -4013,41 +4013,43 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>143</v>
+        <v>232</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>151</v>
+        <v>233</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>154</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>20</v>
       </c>
@@ -4056,7 +4058,7 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>20</v>
@@ -4065,19 +4067,21 @@
         <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
       </c>
@@ -4125,50 +4129,50 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>20</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -4180,17 +4184,15 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4227,37 +4229,37 @@
         <v>20</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="AC22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AD22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AF22" t="s" s="2">
+      <c r="AG22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>20</v>
@@ -4268,46 +4270,44 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>20</v>
       </c>
@@ -4331,49 +4331,49 @@
         <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>20</v>
@@ -4384,10 +4384,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4404,25 +4404,25 @@
         <v>20</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="O24" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4447,13 +4447,13 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4471,7 +4471,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4486,10 +4486,10 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>20</v>
@@ -4500,10 +4500,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>86</v>
@@ -4526,68 +4526,68 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="S25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4602,13 +4602,13 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>20</v>
@@ -4616,10 +4616,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4642,24 +4642,26 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N26" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>20</v>
@@ -4730,10 +4732,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4741,7 +4743,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>86</v>
@@ -4756,7 +4758,7 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>209</v>
@@ -4764,7 +4766,9 @@
       <c r="M27" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4777,7 +4781,7 @@
         <v>20</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>20</v>
@@ -4813,7 +4817,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4828,13 +4832,13 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>20</v>
@@ -4842,10 +4846,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4868,17 +4872,15 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -4927,7 +4929,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4942,13 +4944,13 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>20</v>
@@ -4956,14 +4958,12 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>20</v>
       </c>
@@ -4984,18 +4984,18 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>144</v>
+        <v>228</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>20</v>
       </c>
@@ -5043,39 +5043,39 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>143</v>
+        <v>232</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>151</v>
+        <v>233</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>154</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>155</v>
+        <v>248</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5092,26 +5092,32 @@
         <v>20</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>156</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="R30" t="s" s="2">
         <v>20</v>
       </c>
@@ -5155,7 +5161,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>159</v>
+        <v>248</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5167,31 +5173,31 @@
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>20</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>161</v>
+        <v>259</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5207,21 +5213,23 @@
         <v>20</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>133</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
       </c>
@@ -5245,23 +5253,21 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>20</v>
+        <v>265</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>20</v>
       </c>
@@ -5269,7 +5275,7 @@
         <v>149</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>165</v>
+        <v>259</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5281,29 +5287,31 @@
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>160</v>
+        <v>269</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>20</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5312,31 +5320,31 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>167</v>
+        <v>273</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>169</v>
+        <v>262</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>170</v>
+        <v>263</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5361,13 +5369,11 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>173</v>
+        <v>275</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -5385,13 +5391,13 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>174</v>
+        <v>259</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>20</v>
@@ -5400,24 +5406,24 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>175</v>
+        <v>269</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>20</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>176</v>
+        <v>277</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5437,23 +5443,19 @@
         <v>20</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
@@ -5477,13 +5479,13 @@
         <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>20</v>
@@ -5501,7 +5503,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5513,13 +5515,13 @@
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>20</v>
@@ -5530,21 +5532,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -5553,35 +5555,33 @@
         <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>20</v>
@@ -5605,40 +5605,40 @@
         <v>20</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>20</v>
@@ -5646,10 +5646,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>198</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5657,10 +5657,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -5672,18 +5672,20 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>156</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>199</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
@@ -5695,7 +5697,7 @@
         <v>20</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>20</v>
@@ -5731,13 +5733,13 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>203</v>
+        <v>287</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
@@ -5746,13 +5748,13 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>20</v>
@@ -5760,10 +5762,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5783,16 +5785,16 @@
         <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5843,7 +5845,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5855,16 +5857,16 @@
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>20</v>
@@ -5872,21 +5874,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>215</v>
+        <v>293</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
@@ -5895,19 +5897,19 @@
         <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>216</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5945,40 +5947,40 @@
         <v>20</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>20</v>
@@ -5986,10 +5988,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5997,7 +5999,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>86</v>
@@ -6006,34 +6008,32 @@
         <v>20</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>249</v>
+        <v>100</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>253</v>
+        <v>299</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q38" t="s" s="2">
-        <v>254</v>
-      </c>
+      <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>20</v>
+        <v>275</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>20</v>
@@ -6075,7 +6075,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6090,24 +6090,24 @@
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>257</v>
+        <v>20</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>258</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>259</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6118,7 +6118,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>20</v>
@@ -6130,20 +6130,18 @@
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6167,35 +6165,37 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>265</v>
+        <v>20</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AC39" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>20</v>
@@ -6204,37 +6204,35 @@
         <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>270</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -6246,19 +6244,17 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6283,11 +6279,13 @@
         <v>20</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y40" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z40" t="s" s="2">
-        <v>275</v>
+        <v>20</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>20</v>
@@ -6305,13 +6303,13 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>259</v>
+        <v>316</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
@@ -6320,24 +6318,24 @@
         <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>270</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6357,19 +6355,21 @@
         <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>157</v>
+        <v>321</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>158</v>
+        <v>322</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>159</v>
+        <v>324</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6429,13 +6429,13 @@
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>20</v>
@@ -6446,21 +6446,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -6469,21 +6469,23 @@
         <v>20</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>132</v>
+        <v>249</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>133</v>
+        <v>329</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>162</v>
+        <v>330</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
       </c>
@@ -6519,37 +6521,37 @@
         <v>20</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>165</v>
+        <v>333</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>160</v>
+        <v>335</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>20</v>
@@ -6560,10 +6562,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>281</v>
+        <v>337</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6574,7 +6576,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -6586,19 +6588,19 @@
         <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>282</v>
+        <v>161</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>283</v>
+        <v>338</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>284</v>
+        <v>339</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>285</v>
+        <v>340</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -6647,13 +6649,13 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>287</v>
+        <v>342</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>20</v>
@@ -6662,10 +6664,10 @@
         <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>288</v>
+        <v>343</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>20</v>
@@ -6676,12 +6678,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="D44" t="s" s="2">
         <v>20</v>
       </c>
@@ -6690,7 +6694,7 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -6699,19 +6703,23 @@
         <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>157</v>
+        <v>347</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
       </c>
@@ -6735,13 +6743,11 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>20</v>
+        <v>348</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -6759,50 +6765,50 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>159</v>
+        <v>259</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>160</v>
+        <v>269</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>20</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
@@ -6814,17 +6820,15 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -6861,37 +6865,37 @@
         <v>20</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="AC45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AD45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AF45" t="s" s="2">
+      <c r="AG45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
@@ -6902,21 +6906,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>294</v>
+        <v>350</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -6925,29 +6929,27 @@
         <v>20</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>296</v>
+        <v>133</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>297</v>
+        <v>168</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>275</v>
+        <v>20</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>20</v>
@@ -6977,37 +6979,37 @@
         <v>20</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>300</v>
+        <v>171</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>301</v>
+        <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>302</v>
+        <v>165</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
@@ -7018,10 +7020,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7032,7 +7034,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -7044,18 +7046,20 @@
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>156</v>
+        <v>282</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
       </c>
@@ -7103,13 +7107,13 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
@@ -7118,10 +7122,10 @@
         <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>20</v>
@@ -7132,10 +7136,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7143,7 +7147,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>86</v>
@@ -7155,21 +7159,19 @@
         <v>20</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>313</v>
+        <v>162</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>314</v>
+        <v>163</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>315</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>20</v>
       </c>
@@ -7217,7 +7219,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>316</v>
+        <v>164</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7229,13 +7231,13 @@
         <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>318</v>
+        <v>165</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
@@ -7246,21 +7248,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -7269,21 +7271,21 @@
         <v>20</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>321</v>
+        <v>133</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>20</v>
       </c>
@@ -7319,37 +7321,37 @@
         <v>20</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>324</v>
+        <v>171</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>20</v>
@@ -7360,10 +7362,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7371,7 +7373,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>86</v>
@@ -7386,26 +7388,26 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>249</v>
+        <v>100</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>20</v>
+        <v>348</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>20</v>
@@ -7447,7 +7449,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7462,10 +7464,10 @@
         <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>20</v>
@@ -7476,10 +7478,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7502,20 +7504,18 @@
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>20</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7578,10 +7578,10 @@
         <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>20</v>
@@ -7592,23 +7592,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -7620,19 +7618,17 @@
         <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -7657,11 +7653,13 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y52" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z52" t="s" s="2">
-        <v>348</v>
+        <v>20</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -7679,13 +7677,13 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>259</v>
+        <v>316</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>20</v>
@@ -7694,24 +7692,24 @@
         <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>270</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7731,19 +7729,21 @@
         <v>20</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>157</v>
+        <v>321</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>158</v>
+        <v>322</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>159</v>
+        <v>324</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7803,13 +7803,13 @@
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>20</v>
@@ -7820,21 +7820,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
@@ -7843,21 +7843,23 @@
         <v>20</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>132</v>
+        <v>249</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>133</v>
+        <v>329</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>162</v>
+        <v>330</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
       </c>
@@ -7893,37 +7895,37 @@
         <v>20</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>165</v>
+        <v>333</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>160</v>
+        <v>335</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>20</v>
@@ -7934,10 +7936,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>281</v>
+        <v>337</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7948,7 +7950,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>20</v>
@@ -7960,19 +7962,19 @@
         <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>282</v>
+        <v>161</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>283</v>
+        <v>338</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>284</v>
+        <v>339</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>285</v>
+        <v>340</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>20</v>
@@ -8021,13 +8023,13 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>287</v>
+        <v>342</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>20</v>
@@ -8036,10 +8038,10 @@
         <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>288</v>
+        <v>343</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
@@ -8050,10 +8052,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>291</v>
+        <v>360</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8073,19 +8075,23 @@
         <v>20</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>157</v>
+        <v>361</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
       </c>
@@ -8133,7 +8139,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>159</v>
+        <v>360</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8142,19 +8148,19 @@
         <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>20</v>
+        <v>365</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>160</v>
+        <v>366</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>20</v>
+        <v>367</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>20</v>
@@ -8162,14 +8168,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>293</v>
+        <v>368</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8188,18 +8194,20 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>133</v>
+        <v>369</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>162</v>
+        <v>370</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
       </c>
@@ -8235,19 +8243,19 @@
         <v>20</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>165</v>
+        <v>368</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8259,13 +8267,13 @@
         <v>20</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>160</v>
+        <v>366</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>20</v>
@@ -8276,10 +8284,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>295</v>
+        <v>373</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8287,10 +8295,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
@@ -8299,29 +8307,29 @@
         <v>20</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>100</v>
+        <v>374</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>296</v>
+        <v>375</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>297</v>
+        <v>376</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>298</v>
+        <v>377</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>299</v>
+        <v>378</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>348</v>
+        <v>20</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>20</v>
@@ -8363,28 +8371,28 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>300</v>
+        <v>373</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>20</v>
+        <v>379</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>380</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>301</v>
+        <v>381</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>302</v>
+        <v>382</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>20</v>
+        <v>383</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>20</v>
@@ -8392,10 +8400,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>304</v>
+        <v>384</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8406,7 +8414,7 @@
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>20</v>
@@ -8415,21 +8423,23 @@
         <v>20</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>156</v>
+        <v>385</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>305</v>
+        <v>386</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>306</v>
+        <v>387</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
       </c>
@@ -8477,28 +8487,28 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>308</v>
+        <v>384</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>20</v>
+        <v>390</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>98</v>
+        <v>391</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>309</v>
+        <v>392</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>310</v>
+        <v>393</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>20</v>
+        <v>394</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>20</v>
@@ -8506,10 +8516,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>312</v>
+        <v>395</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8517,7 +8527,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>86</v>
@@ -8532,17 +8542,17 @@
         <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>106</v>
+        <v>396</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>313</v>
+        <v>397</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -8591,7 +8601,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>316</v>
+        <v>395</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8606,13 +8616,13 @@
         <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>318</v>
+        <v>400</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>20</v>
@@ -8620,10 +8630,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>320</v>
+        <v>401</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8634,7 +8644,7 @@
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>20</v>
@@ -8643,20 +8653,22 @@
         <v>20</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>156</v>
+        <v>402</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>321</v>
+        <v>403</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O61" t="s" s="2">
-        <v>323</v>
+        <v>406</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -8705,13 +8717,13 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>324</v>
+        <v>401</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>20</v>
@@ -8720,10 +8732,10 @@
         <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>20</v>
@@ -8734,10 +8746,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>328</v>
+        <v>408</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8757,23 +8769,19 @@
         <v>20</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>249</v>
+        <v>161</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>329</v>
+        <v>162</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>20</v>
       </c>
@@ -8821,7 +8829,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>333</v>
+        <v>164</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -8833,13 +8841,13 @@
         <v>20</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>334</v>
+        <v>20</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>335</v>
+        <v>165</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>20</v>
@@ -8850,21 +8858,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>337</v>
+        <v>409</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>20</v>
@@ -8873,23 +8881,21 @@
         <v>20</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>338</v>
+        <v>133</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>339</v>
+        <v>168</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>20</v>
       </c>
@@ -8937,25 +8943,25 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>342</v>
+        <v>171</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>343</v>
+        <v>20</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>344</v>
+        <v>165</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>20</v>
@@ -8966,45 +8972,45 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>20</v>
+        <v>411</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>362</v>
+        <v>413</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>363</v>
+        <v>135</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>364</v>
+        <v>141</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9053,28 +9059,28 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>365</v>
+        <v>20</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>366</v>
+        <v>129</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>367</v>
+        <v>20</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>20</v>
@@ -9082,10 +9088,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9096,7 +9102,7 @@
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>20</v>
@@ -9108,19 +9114,17 @@
         <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>20</v>
@@ -9145,13 +9149,13 @@
         <v>20</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>20</v>
+        <v>419</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>20</v>
+        <v>420</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>20</v>
@@ -9169,13 +9173,13 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>20</v>
@@ -9187,7 +9191,7 @@
         <v>20</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>366</v>
+        <v>421</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>20</v>
@@ -9198,10 +9202,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9212,7 +9216,7 @@
         <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>20</v>
@@ -9224,19 +9228,17 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -9285,28 +9287,28 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>379</v>
+        <v>20</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>380</v>
+        <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>20</v>
@@ -9314,10 +9316,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9340,19 +9342,17 @@
         <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
@@ -9401,7 +9401,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9410,19 +9410,19 @@
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>390</v>
+        <v>20</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>391</v>
+        <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>394</v>
+        <v>20</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>20</v>
@@ -9430,10 +9430,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9453,20 +9453,20 @@
         <v>20</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>397</v>
+        <v>436</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>398</v>
+        <v>437</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -9515,7 +9515,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9530,13 +9530,13 @@
         <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>255</v>
+        <v>439</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>20</v>
@@ -9544,10 +9544,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9570,19 +9570,17 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>402</v>
+        <v>442</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>406</v>
+        <v>445</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>20</v>
@@ -9631,7 +9629,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -9649,924 +9647,12 @@
         <v>20</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>407</v>
+        <v>165</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="P72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="P73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="P74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="P75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="P76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="P77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN77" t="s" s="2">
         <v>20</v>
       </c>
     </row>
